--- a/test/test_singlezone/steady_06/正解値06.xlsx
+++ b/test/test_singlezone/steady_06/正解値06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644DDB0C-F599-40A2-8A3E-FB0BCD6022BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D2E3C-7388-499F-B63A-3F66CCC99735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21345" windowHeight="12570" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,26 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" iterate="1" iterateDelta="1E-10"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -1209,6 +1218,51 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人体に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ジンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人体に対する平均放射温度</t>
+    <rPh sb="0" eb="2">
+      <t>ジンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等価室温</t>
+    <rPh sb="0" eb="2">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シツオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1267,7 +1321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1327,6 +1381,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1336,7 +1403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +1455,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,28 +1494,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1915,228 +1991,228 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="22"/>
-    <col min="6" max="6" width="12.8984375" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="22"/>
+    <col min="1" max="1" width="19" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="18"/>
+    <col min="6" max="6" width="12.875" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="20">
         <v>1.199999999980782</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="str">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="str">
         <f>[1]正解値!$H20</f>
         <v>壁</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="21">
         <f>正解値!$J23</f>
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="23">
         <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="17">
         <f>[1]正解値!$K20</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="23">
         <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="str">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="str">
         <f>[1]正解値!$H21</f>
         <v>壁</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="21">
         <f>正解値!$J24</f>
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="23">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <f>[1]正解値!$K21</f>
         <v>0.9</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="23">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="str">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="str">
         <f>[1]正解値!$H22</f>
         <v>壁</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="21">
         <f>正解値!$J25</f>
         <v>1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <f>[1]正解値!$K22</f>
         <v>0.9</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="23">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="str">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="str">
         <f>[1]正解値!$H23</f>
         <v>壁</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="21">
         <f>正解値!$J26</f>
         <v>1</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="23">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <f>[1]正解値!$K23</f>
         <v>0.9</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="str">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="str">
         <f>[1]正解値!$H24</f>
         <v>床</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="21">
         <f>正解値!$J27</f>
         <v>1</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="23">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <f>[1]正解値!$K24</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="23">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="str">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="str">
         <f>[1]正解値!$H25</f>
         <v>屋根</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="21">
         <f>正解値!$J28</f>
         <v>1</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="23">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <f>[1]正解値!$K25</f>
         <v>0.9</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="23">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="21">
         <f>SUM(B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="28">
+      <c r="C9" s="17"/>
+      <c r="D9" s="24">
         <f>SUM(D3:D8)</f>
         <v>1.0000000000200189</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2148,120 +2224,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" customWidth="1"/>
-    <col min="12" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2317,12 +2398,21 @@
       <c r="W21" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
+      <c r="X21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2381,10 +2471,17 @@
       <c r="W22" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2514,7 @@
         <v>3.0411743961133499</v>
       </c>
       <c r="N23" s="1">
-        <f ca="1">1/SUM($M23,$L23)</f>
+        <f t="shared" ref="N23:N28" ca="1" si="1">1/SUM($M23,$L23)</f>
         <v>0.11000000000000014</v>
       </c>
       <c r="O23" s="1">
@@ -2428,34 +2525,46 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q23" s="1">
-        <f ca="1">1/(1/$M23+$P23+$O23)</f>
+        <f t="shared" ref="Q23:Q28" ca="1" si="2">1/(1/$M23+$P23+$O23)</f>
         <v>2.3048160543761158</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="15">
-        <f ca="1">$I23+($T23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
-        <v>1.3426839126919428</v>
+        <f t="shared" ref="S23:S28" ca="1" si="3">$I23+($T23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
+        <v>1.3426839126919941</v>
       </c>
       <c r="T23" s="1">
-        <f ca="1">($D$34*$M23+$D$35*$L23)/SUM($M23,$L23)+$R23/SUM($M23,$L23)</f>
-        <v>2.7485852869847287</v>
+        <f t="shared" ref="T23:T28" ca="1" si="4">($D$34*$M23+$D$35*$L23)/SUM($M23,$L23)+$R23/SUM($M23,$L23)</f>
+        <v>2.7485852869846408</v>
       </c>
       <c r="U23" s="1">
-        <f ca="1">($D$34-$S23)*$M23</f>
-        <v>9.8211813998560373</v>
+        <f t="shared" ref="U23:U28" ca="1" si="5">($D$34-$S23)*$M23</f>
+        <v>9.8211813998554653</v>
       </c>
       <c r="V23" s="1">
         <f ca="1">($D$35-$S23)*$L23</f>
-        <v>2.9597401846238167</v>
+        <v>2.9597401846231279</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" ref="W23:W27" ca="1" si="1">SUM($U23,$V23)</f>
-        <v>12.780921584479854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+        <f t="shared" ref="W23:W27" ca="1" si="6">SUM($U23,$V23)</f>
+        <v>12.780921584478593</v>
+      </c>
+      <c r="X23" s="1">
+        <f>(1-$X$27)*J23/SUM($J$23:$J$26,$J$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y23" s="31">
+        <f ca="1">SUMPRODUCT(S23:S28,X23:X28)</f>
+        <v>2.6424871103925263</v>
+      </c>
+      <c r="Z23" s="1">
+        <f ca="1">(M23*$D$34+L23*$D$35+R23)*N23</f>
+        <v>2.7485852869846408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2485,11 +2594,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24:M28" ca="1" si="2">1/$N24-$L24</f>
+        <f t="shared" ref="M24:M28" ca="1" si="7">1/$N24-$L24</f>
         <v>3.0411743961133499</v>
       </c>
       <c r="N24" s="1">
-        <f ca="1">1/SUM($M24,$L24)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O24" s="1">
@@ -2500,33 +2609,41 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q24" s="1">
-        <f ca="1">1/(1/$M24+$P24+$O24)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="15">
-        <f ca="1">$I24+($T24-$I24)*SUM($O24,$P24)/SUM($O24,$P24,$N24)</f>
-        <v>1.3426839126919428</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3426839126919941</v>
       </c>
       <c r="T24" s="1">
-        <f ca="1">($D$34*$M24+$D$35*$L24)/SUM($M24,$L24)+$R24/SUM($M24,$L24)</f>
-        <v>2.7485852869847287</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7485852869846408</v>
       </c>
       <c r="U24" s="1">
-        <f ca="1">($D$34-$S24)*$M24</f>
-        <v>9.8211813998560373</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8211813998554653</v>
       </c>
       <c r="V24" s="1">
         <f ca="1">($D$35-$S24)*$L24</f>
-        <v>2.9597401846238167</v>
+        <v>2.9597401846231279</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.780921584479854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="s">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.780921584478593</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" ref="X24:X28" si="8">(1-$X$27)*J24/SUM($J$23:$J$26,$J$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" ref="Z24:Z28" ca="1" si="9">(M24*$D$34+L24*$D$35+R24)*N24</f>
+        <v>2.7485852869846408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A25" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2560,11 +2677,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N25" s="1">
-        <f ca="1">1/SUM($M25,$L25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O25" s="1">
@@ -2575,34 +2692,42 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q25" s="1">
-        <f ca="1">1/(1/$M25+$P25+$O25)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="15">
-        <f ca="1">$I25+($T25-$I25)*SUM($O25,$P25)/SUM($O25,$P25,$N25)</f>
-        <v>1.3426839126919428</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3426839126919941</v>
       </c>
       <c r="T25" s="1">
-        <f ca="1">($D$34*$M25+$D$35*$L25)/SUM($M25,$L25)+$R25/SUM($M25,$L25)</f>
-        <v>2.7485852869847287</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7485852869846408</v>
       </c>
       <c r="U25" s="1">
-        <f ca="1">($D$34-$S25)*$M25</f>
-        <v>9.8211813998560373</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8211813998554653</v>
       </c>
       <c r="V25" s="1">
         <f ca="1">($D$35-$S25)*$L25</f>
-        <v>2.9597401846238167</v>
+        <v>2.9597401846231279</v>
       </c>
       <c r="W25" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.780921584479854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17" t="s">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.780921584478593</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.7485852869846408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A26" s="28"/>
+      <c r="B26" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2635,11 +2760,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N26" s="1">
-        <f ca="1">1/SUM($M26,$L26)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O26" s="1">
@@ -2650,34 +2775,42 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q26" s="1">
-        <f ca="1">1/(1/$M26+$P26+$O26)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="15">
-        <f ca="1">$I26+($T26-$I26)*SUM($O26,$P26)/SUM($O26,$P26,$N26)</f>
-        <v>1.3426839126919428</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3426839126919941</v>
       </c>
       <c r="T26" s="1">
-        <f ca="1">($D$34*$M26+$D$35*$L26)/SUM($M26,$L26)+$R26/SUM($M26,$L26)</f>
-        <v>2.7485852869847287</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7485852869846408</v>
       </c>
       <c r="U26" s="1">
-        <f ca="1">($D$34-$S26)*$M26</f>
-        <v>9.8211813998560373</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8211813998554653</v>
       </c>
       <c r="V26" s="1">
         <f ca="1">($D$35-$S26)*$L26</f>
-        <v>2.9597401846238167</v>
+        <v>2.9597401846231279</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.780921584479854</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>12.780921584478593</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.7485852869846408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2707,11 +2840,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N27" s="1">
-        <f ca="1">1/SUM($M27,$L27)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O27" s="1">
@@ -2722,7 +2855,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q27" s="1">
-        <f ca="1">1/(1/$M27+$P27+$O27)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
       <c r="R27" s="1">
@@ -2730,29 +2863,36 @@
         <v>50</v>
       </c>
       <c r="S27" s="15">
-        <f ca="1">$I27+($T27-$I27)*SUM($O27,$P27)/SUM($O27,$P27,$N27)</f>
-        <v>4.2159435911254288</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.215943591125483</v>
       </c>
       <c r="T27" s="1">
-        <f ca="1">($D$34*$M27+$D$35*$L27)/SUM($M27,$L27)+$R27/SUM($M27,$L27)</f>
-        <v>8.2485852869847349</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.2485852869846479</v>
       </c>
       <c r="U27" s="1">
-        <f ca="1">($D$34-$S27)*$M27</f>
-        <v>1.0830976324192414</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0830976324186607</v>
       </c>
       <c r="V27" s="1">
         <f ca="1">($D$35-$S27)*$L27+($D$29*$D$30)/$J$27</f>
-        <v>35.577281420847136</v>
+        <v>35.577281420846433</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.660379053266375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>36.660379053265096</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.2485852869846479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2781,11 +2921,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N28" s="1">
-        <f ca="1">1/SUM($M28,$L28)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O28" s="1">
@@ -2796,34 +2936,42 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q28" s="1">
-        <f ca="1">1/(1/$M28+$P28+$O28)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="15">
-        <f ca="1">$I28+($T28-$I28)*SUM($O28,$P28)/SUM($O28,$P28,$N28)</f>
-        <v>1.4048324800143162</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4048324800143699</v>
       </c>
       <c r="T28" s="1">
-        <f ca="1">($D$34*$M28+$D$35*$L28)/SUM($M28,$L28)+$R28/SUM($M28,$L28)</f>
-        <v>2.7485852869847287</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7485852869846408</v>
       </c>
       <c r="U28" s="1">
-        <f ca="1">($D$34-$S28)*$M28</f>
-        <v>9.6321767681601074</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6321767681595283</v>
       </c>
       <c r="V28" s="1">
         <f ca="1">($D$35-$S28)*$L28</f>
-        <v>2.5837578406618067</v>
+        <v>2.5837578406611028</v>
       </c>
       <c r="W28" s="12">
         <f ca="1">SUM($U28,$V28)</f>
-        <v>12.215934608821915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+        <v>12.215934608820632</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.7485852869846408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="1" t="s">
         <v>65</v>
       </c>
@@ -2851,9 +2999,9 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,11 +3013,11 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A31" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2877,16 +3025,16 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">SUM($U$23:$U$28)</f>
-        <v>50.000000000003496</v>
+        <v>50.000000000000057</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
@@ -2899,24 +3047,24 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="28"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">SUM($D$31:$D$32)</f>
-        <v>50.000000000003496</v>
+        <v>50.000000000000057</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="28"/>
+      <c r="B34" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2924,22 +3072,22 @@
       </c>
       <c r="D34" s="14">
         <f ca="1">$D$34+($D$28+$D$29*(1-$D$30)-$D$33)/$D$27</f>
-        <v>4.5720881232517927</v>
+        <v>4.5720881232519064</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">SUMPRODUCT($L$23:$L$28,$J$23:$J$28,$S$23:$S$28)/SUMPRODUCT($L$23:$L$28,$J$23:$J$28)</f>
-        <v>1.831918620317919</v>
+        <v>1.8319186203179711</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>

--- a/test/test_singlezone/steady_06/正解値06.xlsx
+++ b/test/test_singlezone/steady_06/正解値06.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D2E3C-7388-499F-B63A-3F66CCC99735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21345" windowHeight="12570" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21345" windowHeight="12570" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
     <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -1264,6 +1261,55 @@
     <rPh sb="2" eb="4">
       <t>シツオン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>屋根</t>
+  </si>
+  <si>
+    <t>家具</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンダクタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱容量</t>
+    <rPh sb="0" eb="3">
+      <t>ネツヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J/K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱量</t>
+    <rPh sb="0" eb="2">
+      <t>ネツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1403,7 +1449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1525,12 @@
     <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,10 +1546,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1624,70 +1682,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="熱伝達率"/>
-      <sheetName val="正解値"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="H20" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K20">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K21">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K22">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K23">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24" t="str">
-            <v>床</v>
-          </cell>
-          <cell r="K24">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25" t="str">
-            <v>屋根</v>
-          </cell>
-          <cell r="K25">
-            <v>0.9</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1989,7 +1983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057D0BD2-17D5-49FF-838C-CD87363E756B}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2037,9 +2033,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="str">
-        <f>[1]正解値!$H20</f>
-        <v>壁</v>
+      <c r="A3" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="B3" s="21">
         <f>正解値!$J23</f>
@@ -2054,7 +2049,6 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E3" s="17">
-        <f>[1]正解値!$K20</f>
         <v>0.9</v>
       </c>
       <c r="F3" s="23">
@@ -2069,9 +2063,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="str">
-        <f>[1]正解値!$H21</f>
-        <v>壁</v>
+      <c r="A4" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="B4" s="21">
         <f>正解値!$J24</f>
@@ -2086,7 +2079,6 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E4" s="17">
-        <f>[1]正解値!$K21</f>
         <v>0.9</v>
       </c>
       <c r="F4" s="23">
@@ -2095,9 +2087,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="str">
-        <f>[1]正解値!$H22</f>
-        <v>壁</v>
+      <c r="A5" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="21">
         <f>正解値!$J25</f>
@@ -2112,7 +2103,6 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E5" s="17">
-        <f>[1]正解値!$K22</f>
         <v>0.9</v>
       </c>
       <c r="F5" s="23">
@@ -2121,9 +2111,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="str">
-        <f>[1]正解値!$H23</f>
-        <v>壁</v>
+      <c r="A6" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="B6" s="21">
         <f>正解値!$J26</f>
@@ -2138,7 +2127,6 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E6" s="17">
-        <f>[1]正解値!$K23</f>
         <v>0.9</v>
       </c>
       <c r="F6" s="23">
@@ -2147,9 +2135,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="str">
-        <f>[1]正解値!$H24</f>
-        <v>床</v>
+      <c r="A7" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="B7" s="21">
         <f>正解値!$J27</f>
@@ -2164,7 +2151,6 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E7" s="17">
-        <f>[1]正解値!$K24</f>
         <v>0.9</v>
       </c>
       <c r="F7" s="23">
@@ -2173,9 +2159,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="str">
-        <f>[1]正解値!$H25</f>
-        <v>屋根</v>
+      <c r="A8" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="B8" s="21">
         <f>正解値!$J28</f>
@@ -2190,7 +2175,6 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E8" s="17">
-        <f>[1]正解値!$K25</f>
         <v>0.9</v>
       </c>
       <c r="F8" s="23">
@@ -2224,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23:W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2338,11 +2322,11 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2401,7 +2385,7 @@
       <c r="X21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="Y21" s="30" t="s">
+      <c r="Y21" s="25" t="s">
         <v>86</v>
       </c>
       <c r="Z21" s="16" t="s">
@@ -2409,10 +2393,10 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2472,7 +2456,7 @@
         <v>31</v>
       </c>
       <c r="X22" s="1"/>
-      <c r="Y22" s="30" t="s">
+      <c r="Y22" s="25" t="s">
         <v>9</v>
       </c>
       <c r="Z22" s="16" t="s">
@@ -2480,8 +2464,8 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2531,40 +2515,40 @@
       <c r="R23" s="1"/>
       <c r="S23" s="15">
         <f t="shared" ref="S23:S28" ca="1" si="3">$I23+($T23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
-        <v>1.3426839126919941</v>
+        <v>1.3426839126925707</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ref="T23:T28" ca="1" si="4">($D$34*$M23+$D$35*$L23)/SUM($M23,$L23)+$R23/SUM($M23,$L23)</f>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ref="U23:U28" ca="1" si="5">($D$34-$S23)*$M23</f>
-        <v>9.8211813998554653</v>
+        <v>9.8211813998490118</v>
       </c>
       <c r="V23" s="1">
         <f ca="1">($D$35-$S23)*$L23</f>
-        <v>2.9597401846231279</v>
+        <v>2.9597401846153875</v>
       </c>
       <c r="W23" s="12">
         <f t="shared" ref="W23:W27" ca="1" si="6">SUM($U23,$V23)</f>
-        <v>12.780921584478593</v>
+        <v>12.7809215844644</v>
       </c>
       <c r="X23" s="1">
         <f>(1-$X$27)*J23/SUM($J$23:$J$26,$J$28)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y23" s="31">
+      <c r="Y23" s="26">
         <f ca="1">SUMPRODUCT(S23:S28,X23:X28)</f>
-        <v>2.6424871103925263</v>
+        <v>2.6424871103919565</v>
       </c>
       <c r="Z23" s="1">
         <f ca="1">(M23*$D$34+L23*$D$35+R23)*N23</f>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2615,23 +2599,23 @@
       <c r="R24" s="1"/>
       <c r="S24" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126919941</v>
+        <v>1.3426839126925707</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8211813998554653</v>
+        <v>9.8211813998490118</v>
       </c>
       <c r="V24" s="1">
         <f ca="1">($D$35-$S24)*$L24</f>
-        <v>2.9597401846231279</v>
+        <v>2.9597401846153875</v>
       </c>
       <c r="W24" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>12.780921584478593</v>
+        <v>12.7809215844644</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" ref="X24:X28" si="8">(1-$X$27)*J24/SUM($J$23:$J$26,$J$28)</f>
@@ -2639,11 +2623,11 @@
       </c>
       <c r="Z24" s="1">
         <f t="shared" ref="Z24:Z28" ca="1" si="9">(M24*$D$34+L24*$D$35+R24)*N24</f>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2698,23 +2682,23 @@
       <c r="R25" s="1"/>
       <c r="S25" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126919941</v>
+        <v>1.3426839126925707</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8211813998554653</v>
+        <v>9.8211813998490118</v>
       </c>
       <c r="V25" s="1">
         <f ca="1">($D$35-$S25)*$L25</f>
-        <v>2.9597401846231279</v>
+        <v>2.9597401846153875</v>
       </c>
       <c r="W25" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>12.780921584478593</v>
+        <v>12.7809215844644</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" si="8"/>
@@ -2722,12 +2706,12 @@
       </c>
       <c r="Z25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A26" s="28"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2781,23 +2765,23 @@
       <c r="R26" s="1"/>
       <c r="S26" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126919941</v>
+        <v>1.3426839126925707</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8211813998554653</v>
+        <v>9.8211813998490118</v>
       </c>
       <c r="V26" s="1">
         <f ca="1">($D$35-$S26)*$L26</f>
-        <v>2.9597401846231279</v>
+        <v>2.9597401846153875</v>
       </c>
       <c r="W26" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>12.780921584478593</v>
+        <v>12.7809215844644</v>
       </c>
       <c r="X26" s="1">
         <f t="shared" si="8"/>
@@ -2805,12 +2789,12 @@
       </c>
       <c r="Z26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2864,35 +2848,35 @@
       </c>
       <c r="S27" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.215943591125483</v>
+        <v>4.2159435911260861</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2485852869846479</v>
+        <v>8.2485852869836638</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0830976324186607</v>
+        <v>1.0830976324121266</v>
       </c>
       <c r="V27" s="1">
         <f ca="1">($D$35-$S27)*$L27+($D$29*$D$30)/$J$27</f>
-        <v>35.577281420846433</v>
+        <v>35.577281420838531</v>
       </c>
       <c r="W27" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>36.660379053265096</v>
+        <v>36.660379053250658</v>
       </c>
       <c r="X27" s="1">
         <v>0.45</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8.2485852869846479</v>
+        <v>8.2485852869836638</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2942,23 +2926,23 @@
       <c r="R28" s="1"/>
       <c r="S28" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4048324800143699</v>
+        <v>1.4048324800149732</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6321767681595283</v>
+        <v>9.6321767681529931</v>
       </c>
       <c r="V28" s="1">
         <f ca="1">($D$35-$S28)*$L28</f>
-        <v>2.5837578406611028</v>
+        <v>2.5837578406532011</v>
       </c>
       <c r="W28" s="12">
         <f ca="1">SUM($U28,$V28)</f>
-        <v>12.215934608820632</v>
+        <v>12.215934608806194</v>
       </c>
       <c r="X28" s="1">
         <f t="shared" si="8"/>
@@ -2966,12 +2950,12 @@
       </c>
       <c r="Z28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7485852869846408</v>
+        <v>2.7485852869836562</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="1" t="s">
         <v>65</v>
       </c>
@@ -3000,8 +2984,8 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3014,10 +2998,10 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3025,7 +3009,7 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">SUM($U$23:$U$28)</f>
-        <v>50.000000000000057</v>
+        <v>49.999999999961169</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>2</v>
@@ -3033,8 +3017,8 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
@@ -3048,14 +3032,14 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">SUM($D$31:$D$32)</f>
-        <v>50.000000000000057</v>
+        <v>49.999999999961169</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2</v>
@@ -3063,16 +3047,16 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="14">
-        <f ca="1">$D$34+($D$28+$D$29*(1-$D$30)-$D$33)/$D$27</f>
-        <v>4.5720881232519064</v>
+        <f ca="1">$D$34+($D$28-$D$33-D39)/$D$27</f>
+        <v>4.5720881232531934</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -3080,19 +3064,79 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">SUMPRODUCT($L$23:$L$28,$J$23:$J$28,$S$23:$S$28)/SUMPRODUCT($L$23:$L$28,$J$23:$J$28)</f>
-        <v>1.8319186203179711</v>
+        <v>1.8319186203185569</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="33"/>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>12600</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="33"/>
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <f ca="1">D34+D29*(1-D30)/D36</f>
+        <v>22.609606160771229</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <f ca="1">D36*(D34-D38)</f>
+        <v>-49.999999999999986</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/test/test_singlezone/steady_06/正解値06.xlsx
+++ b/test/test_singlezone/steady_06/正解値06.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD10E73E-A9F9-4520-A421-FC3899DA7544}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21345" windowHeight="12570" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="5280" yWindow="3270" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
     <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1E-10"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="9999" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -313,13 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作用温度</t>
-    <rPh sb="0" eb="4">
-      <t>サヨウオンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相当外気温度</t>
     <rPh sb="0" eb="2">
       <t>ソウトウ</t>
@@ -553,37 +546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>屋根と床が合板12mm、壁が複層ガラスの1m角の立方体の単室モデル。</t>
-    <rPh sb="0" eb="2">
-      <t>ヤネ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゴウハン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>フクソウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>リッポウタイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒトエ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>シツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計算条件</t>
     <rPh sb="0" eb="2">
       <t>ケイサン</t>
@@ -670,16 +632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>換気回数</t>
-    <rPh sb="0" eb="2">
-      <t>カンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>㎥/s</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -769,31 +721,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>室空気からの対流熱損失は、対流熱損失と換気熱損失より求める。</t>
-    <rPh sb="13" eb="15">
-      <t>タイリュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソンシツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソンシツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対流熱損失は、室空気と表面温度の温度差、対流熱伝達率より求める。</t>
     <rPh sb="7" eb="8">
       <t>シツ</t>
@@ -948,52 +875,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>室空気からの熱損失が、内部発熱と床への分配分を除外した透過日射の合計と一致するよう収束計算を行い、室温等を決定する。</t>
-    <rPh sb="0" eb="1">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ブンパイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョガイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シツオン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>W/㎡</t>
   </si>
   <si>
@@ -1197,28 +1078,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相当外気温度0℃、透過日射100W。</t>
-    <rPh sb="0" eb="4">
-      <t>ソウトウガイキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>人体に対する形態係数</t>
     <rPh sb="0" eb="2">
       <t>ジンタイ</t>
@@ -1310,6 +1169,350 @@
   </si>
   <si>
     <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法線面直達日射量</t>
+    <rPh sb="0" eb="3">
+      <t>ホウセンメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョクタツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/m2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平面天空日射量</t>
+    <rPh sb="0" eb="3">
+      <t>スイヘイメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンクウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>換気量</t>
+    <rPh sb="0" eb="3">
+      <t>カンキリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜間放射</t>
+    <rPh sb="0" eb="2">
+      <t>ヤカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽方位角</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽高度</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾斜面傾斜角</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾斜面方位角</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cosθ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入射角方向余弦</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面日射反射率</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平面全天日射量</t>
+    <rPh sb="0" eb="3">
+      <t>スイヘイメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面反射日射量</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾斜面日射量</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天空に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>テンクウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての部位が合板12mmの立方体の単室モデル。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウハン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>リッポウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒトエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外気温度0℃、法線面直達日射量700W/m2、水平面天空日射200W/m2。太陽高度30度、太陽方位角0度</t>
+    <rPh sb="0" eb="2">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ホウセンメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョクタツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>スイヘイメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テンクウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウド</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>室空気からの熱損失が、0Wとなるよう収束計算を行い、室温等を決定する。</t>
+    <rPh sb="0" eb="1">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シツオン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>室空気からの対流熱損失は、対流熱損失より求める。</t>
+    <rPh sb="13" eb="15">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1449,7 +1652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,47 +1662,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1531,6 +1701,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,18 +1733,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1684,10 +1860,102 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420382</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2558B6F7-449A-BAB8-0F07-CA94D275D24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="1" r="42182" b="6988"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6941344" y="6849758"/>
+          <a:ext cx="3360309" cy="242704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1381606</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47381CF1-D34B-0AC5-255A-5FD6ECA0E073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10455519" y="6843346"/>
+          <a:ext cx="1191106" cy="438327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1725,7 +1993,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1831,7 +2099,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1973,7 +2241,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1989,214 +2257,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="18"/>
-    <col min="6" max="6" width="12.875" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="18"/>
+    <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="7"/>
+    <col min="6" max="6" width="12.875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="G2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="20">
+      <c r="H2" s="9">
         <v>1.199999999980782</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="21">
-        <f>正解値!$J23</f>
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="10">
+        <f>正解値!$P23</f>
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="11">
         <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="6">
         <v>0.9</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="21">
-        <f>正解値!$J24</f>
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10">
+        <f>正解値!$P24</f>
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="6">
         <v>0.9</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="21">
-        <f>正解値!$J25</f>
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="10">
+        <f>正解値!$P25</f>
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="6">
         <v>0.9</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="21">
-        <f>正解値!$J26</f>
+      <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="10">
+        <f>正解値!$P26</f>
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="6">
         <v>0.9</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="21">
-        <f>正解値!$J27</f>
+      <c r="A7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="10">
+        <f>正解値!$P27</f>
         <v>1</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="6">
         <v>0.9</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="21">
-        <f>正解値!$J28</f>
+      <c r="A8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="10">
+        <f>正解値!$P28</f>
         <v>1</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="6">
         <v>0.9</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="10">
         <f>SUM(B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="24">
+      <c r="C9" s="6"/>
+      <c r="D9" s="13">
         <f>SUM(D3:D8)</f>
         <v>1.0000000000200189</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2208,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23:W28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2219,114 +2487,123 @@
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="13" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="13" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A21" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2337,300 +2614,384 @@
         <v>15</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="13" t="s">
+      <c r="AD21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y21" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z21" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A22" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>49</v>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
         <v>1005</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="6"/>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="P22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="Q22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="S22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="T22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="U22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="V22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="W22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" s="5" t="s">
+      <c r="X22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="Z22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="25" t="s">
+      <c r="AA22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="AF22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1">
         <v>1.2</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="H23" s="3" t="s">
-        <v>39</v>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ref="I23:I28" si="0">$D$25</f>
+        <f>RADIANS(90)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J23" s="1">
+        <f>RADIANS(0)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
+        <f>MAX(SIN($D$30)*COS(I23)+COS($D$30)*SIN(I23)*COS($D$29-J23),0)</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="L23" s="1">
+        <f>(1+COS(I23))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="1">
+        <f>1-L23</f>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="1">
+        <f>$D$26*K23+$D$27*L23+$D$33*M23</f>
+        <v>733.71778264910711</v>
+      </c>
+      <c r="O23" s="1">
+        <f>$D$25+N23*0.8*0.04</f>
+        <v>23.478969044771429</v>
+      </c>
+      <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="1">
+      <c r="Q23" s="1">
         <v>0.9</v>
       </c>
-      <c r="L23" s="1">
+      <c r="R23" s="1">
         <f>熱伝達率!$F3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M23" s="1">
-        <f ca="1">1/$N23-$L23</f>
+      <c r="S23" s="1">
+        <f ca="1">1/$T23-$R23</f>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" ref="N23:N28" ca="1" si="1">1/SUM($M23,$L23)</f>
+      <c r="T23" s="1">
+        <f t="shared" ref="T23:T28" ca="1" si="0">1/SUM($S23,$R23)</f>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O23" s="1">
+      <c r="U23" s="1">
         <v>0.04</v>
       </c>
-      <c r="P23" s="1">
-        <f ca="1">1/4.65-SUM($N23,$O23)</f>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" ref="Q23:Q28" ca="1" si="2">1/(1/$M23+$P23+$O23)</f>
-        <v>2.3048160543761158</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="15">
-        <f t="shared" ref="S23:S28" ca="1" si="3">$I23+($T23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
-        <v>1.3426839126925707</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" ref="T23:T28" ca="1" si="4">($D$34*$M23+$D$35*$L23)/SUM($M23,$L23)+$R23/SUM($M23,$L23)</f>
-        <v>2.7485852869836562</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" ref="U23:U28" ca="1" si="5">($D$34-$S23)*$M23</f>
-        <v>9.8211813998490118</v>
-      </c>
       <c r="V23" s="1">
-        <f ca="1">($D$35-$S23)*$L23</f>
-        <v>2.9597401846153875</v>
-      </c>
-      <c r="W23" s="12">
-        <f t="shared" ref="W23:W27" ca="1" si="6">SUM($U23,$V23)</f>
-        <v>12.7809215844644</v>
-      </c>
-      <c r="X23" s="1">
-        <f>(1-$X$27)*J23/SUM($J$23:$J$26,$J$28)</f>
+        <f t="shared" ref="V23:V26" si="1">0.012/0.16</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23:W28" ca="1" si="2">1/(1/$S23+$V23+$U23)</f>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="5">
+        <f t="shared" ref="Y23:Y28" ca="1" si="3">$O23+($Z23-$O23)*SUM($U23,$V23)/SUM($U23,$V23,$T23)</f>
+        <v>16.170519266442973</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" ref="Z23:Z28" ca="1" si="4">($D$42*$S23+$D$43*$R23)/SUM($S23,$R23)+$X23/SUM($S23,$R23)</f>
+        <v>9.1798281741283905</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" ref="AA23:AA28" ca="1" si="5">($D$42-$Y23)*$S23</f>
+        <v>-21.259910761085109</v>
+      </c>
+      <c r="AB23" s="1">
+        <f ca="1">($D$43-$Y23)*$R23</f>
+        <v>-42.29182644177466</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" ref="AC23:AC27" ca="1" si="6">SUM($AA23,$AB23)</f>
+        <v>-63.551737202859769</v>
+      </c>
+      <c r="AD23" s="1">
+        <f>(1-$AD$27)*P23/SUM($P$23:$P$26,$P$28)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y23" s="26">
-        <f ca="1">SUMPRODUCT(S23:S28,X23:X28)</f>
-        <v>2.6424871103919565</v>
-      </c>
-      <c r="Z23" s="1">
-        <f ca="1">(M23*$D$34+L23*$D$35+R23)*N23</f>
-        <v>2.7485852869836562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="AE23" s="15">
+        <f ca="1">SUMPRODUCT(Y23:Y28,AD23:AD28)</f>
+        <v>7.9464878465177655</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" ref="AF23:AF28" ca="1" si="7">(S23*$D$42+R23*$D$43+X23)*T23</f>
+        <v>9.1798281741283905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
         <f>$D$22*$D$23</f>
         <v>1206</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="H24" s="4" t="s">
-        <v>39</v>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I24:J26" si="8">RADIANS(90)</f>
+        <v>1.5707963267948966</v>
       </c>
       <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K28" si="9">MAX(SIN($D$30)*COS(I24)+COS($D$30)*SIN(I24)*COS($D$29-J24),0)</f>
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24:L28" si="10">(1+COS(I24))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ref="M24:M28" si="11">1-L24</f>
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ref="N24:N28" si="12">$D$26*K24+$D$27*L24+$D$33*M24</f>
+        <v>127.50000000000006</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O28" si="13">$D$25+N24*0.8*0.04</f>
+        <v>4.0800000000000027</v>
+      </c>
+      <c r="P24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="Q24" s="1">
         <v>0.9</v>
       </c>
-      <c r="L24" s="1">
+      <c r="R24" s="1">
         <f>熱伝達率!$F4</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" ref="M24:M28" ca="1" si="7">1/$N24-$L24</f>
+      <c r="S24" s="1">
+        <f t="shared" ref="S24:S28" ca="1" si="14">1/$T24-$R24</f>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T24" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O24" s="1">
+      <c r="U24" s="1">
         <v>0.04</v>
       </c>
-      <c r="P24" s="1">
-        <f ca="1">1/4.65-SUM($N24,$O24)</f>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="V24" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3048160543761158</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="15">
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126925707</v>
-      </c>
-      <c r="T24" s="1">
+        <v>6.6865788445547114</v>
+      </c>
+      <c r="Z24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869836562</v>
-      </c>
-      <c r="U24" s="1">
+        <v>9.1798281741283905</v>
+      </c>
+      <c r="AA24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8211813998490118</v>
-      </c>
-      <c r="V24" s="1">
-        <f ca="1">($D$35-$S24)*$L24</f>
-        <v>2.9597401846153875</v>
-      </c>
-      <c r="W24" s="12">
+        <v>7.5824060242259135</v>
+      </c>
+      <c r="AB24" s="1">
+        <f ca="1">($D$43-$Y24)*$R24</f>
+        <v>15.0834969718984</v>
+      </c>
+      <c r="AC24" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>12.7809215844644</v>
-      </c>
-      <c r="X24" s="1">
-        <f t="shared" ref="X24:X28" si="8">(1-$X$27)*J24/SUM($J$23:$J$26,$J$28)</f>
+        <v>22.665902996124313</v>
+      </c>
+      <c r="AD24" s="1">
+        <f>(1-$AD$27)*P24/SUM($P$23:$P$26,$P$28)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Z24" s="1">
-        <f t="shared" ref="Z24:Z28" ca="1" si="9">(M24*$D$34+L24*$D$35+R24)*N24</f>
-        <v>2.7485852869836562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A25" s="28" t="s">
+      <c r="AF24" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.1798281741283905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2643,514 +3004,712 @@
         <v>9</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="H25" s="4" t="s">
-        <v>39</v>
+      <c r="H25" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.5707963267948966</v>
       </c>
       <c r="J25" s="1">
+        <f>-RADIANS(90)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="12"/>
+        <v>127.50000000000006</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="13"/>
+        <v>4.0800000000000027</v>
+      </c>
+      <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="Q25" s="1">
         <v>0.9</v>
       </c>
-      <c r="L25" s="1">
+      <c r="R25" s="1">
         <f>熱伝達率!$F5</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M25" s="1">
+      <c r="S25" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6865788445547114</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.1798281741283905</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.5824060242259135</v>
+      </c>
+      <c r="AB25" s="1">
+        <f ca="1">($D$43-$Y25)*$R25</f>
+        <v>15.0834969718984</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>22.665902996124313</v>
+      </c>
+      <c r="AD25" s="1">
+        <f>(1-$AD$27)*P25/SUM($P$23:$P$26,$P$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="AF25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="P25" s="1">
-        <f ca="1">1/4.65-SUM($N25,$O25)</f>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3048160543761158</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126925707</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869836562</v>
-      </c>
-      <c r="U25" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.8211813998490118</v>
-      </c>
-      <c r="V25" s="1">
-        <f ca="1">($D$35-$S25)*$L25</f>
-        <v>2.9597401846153875</v>
-      </c>
-      <c r="W25" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.7809215844644</v>
-      </c>
-      <c r="X25" s="1">
+        <v>9.1798281741283905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1">
+        <v>700</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="8"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="Z25" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.7485852869836562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J26" s="1">
+        <f>RADIANS(180)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="12"/>
+        <v>127.5</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="13"/>
+        <v>4.08</v>
+      </c>
+      <c r="P26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="1">
+      <c r="Q26" s="1">
         <v>0.9</v>
       </c>
-      <c r="L26" s="1">
+      <c r="R26" s="1">
         <f>熱伝達率!$F6</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M26" s="1">
+      <c r="S26" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6865788445547105</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.1798281741283905</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.5824060242259161</v>
+      </c>
+      <c r="AB26" s="1">
+        <f ca="1">($D$43-$Y26)*$R26</f>
+        <v>15.083496971898406</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" ca="1" si="6"/>
+        <v>22.665902996124323</v>
+      </c>
+      <c r="AD26" s="1">
+        <f>(1-$AD$27)*P26/SUM($P$23:$P$26,$P$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="AF26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="P26" s="1">
-        <f ca="1">1/4.65-SUM($N26,$O26)</f>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3048160543761158</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3426839126925707</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869836562</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.8211813998490118</v>
-      </c>
-      <c r="V26" s="1">
-        <f ca="1">($D$35-$S26)*$L26</f>
-        <v>2.9597401846153875</v>
-      </c>
-      <c r="W26" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>12.7809215844644</v>
-      </c>
-      <c r="X26" s="1">
-        <f t="shared" si="8"/>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="Z26" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.7485852869836562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+        <v>9.1798281741283905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1">
-        <f ca="1">SUMPRODUCT($Q$23:$Q$28,$J$23:$J$28)+$D$24*$D$26</f>
-        <v>13.725592157349325</v>
+        <v>200</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="7" t="s">
-        <v>35</v>
+      <c r="H27" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f>RADIANS(180)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" ref="J27:J28" si="15">RADIANS(0)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K27" s="1">
+      <c r="N27" s="1">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="13"/>
+        <v>1.76</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
         <v>0.9</v>
       </c>
-      <c r="L27" s="1">
+      <c r="R27" s="1">
         <f>熱伝達率!$F7</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="S27" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N27" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T27" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O27" s="1">
+      <c r="U27" s="1">
         <v>0.04</v>
       </c>
-      <c r="P27" s="1">
+      <c r="V27" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="W27" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
-      <c r="R27" s="1">
-        <f>($D$29*$D$30)/$J27</f>
-        <v>50</v>
-      </c>
-      <c r="S27" s="15">
+      <c r="X27" s="1">
+        <f>($D$37*$D$38)/$P27</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2159435911260861</v>
-      </c>
-      <c r="T27" s="1">
+        <v>5.5523566223324874</v>
+      </c>
+      <c r="Z27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2485852869836638</v>
-      </c>
-      <c r="U27" s="1">
+        <v>9.1798281741283905</v>
+      </c>
+      <c r="AA27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0830976324121266</v>
-      </c>
-      <c r="V27" s="1">
-        <f ca="1">($D$35-$S27)*$L27+($D$29*$D$30)/$J$27</f>
-        <v>35.577281420838531</v>
-      </c>
-      <c r="W27" s="12">
+        <v>11.031773605950926</v>
+      </c>
+      <c r="AB27" s="1">
+        <f ca="1">($D$43-$Y27)*$R27+($D$37*$D$38)/$P$27</f>
+        <v>21.945240501284502</v>
+      </c>
+      <c r="AC27" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>36.660379053250658</v>
-      </c>
-      <c r="X27" s="1">
+        <v>32.977014107235426</v>
+      </c>
+      <c r="AD27" s="1">
         <v>0.45</v>
       </c>
-      <c r="Z27" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.2485852869836638</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="AF27" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.1798281741283905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="H28" s="7" t="s">
-        <v>34</v>
+      <c r="H28" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
+        <f>RADIANS(0)</f>
         <v>0</v>
       </c>
       <c r="J28" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="M28" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="12"/>
+        <v>550</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="13"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
         <v>0.9</v>
       </c>
-      <c r="L28" s="1">
+      <c r="R28" s="1">
         <f>熱伝達率!$F8</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="S28" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N28" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="T28" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O28" s="1">
+      <c r="U28" s="1">
         <v>0.04</v>
       </c>
-      <c r="P28" s="1">
+      <c r="V28" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="W28" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="15">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4048324800149732</v>
-      </c>
-      <c r="T28" s="1">
+        <v>13.296356622332494</v>
+      </c>
+      <c r="Z28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7485852869836562</v>
-      </c>
-      <c r="U28" s="1">
+        <v>9.1798281741283905</v>
+      </c>
+      <c r="AA28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6321767681529931</v>
-      </c>
-      <c r="V28" s="1">
-        <f ca="1">($D$35-$S28)*$L28</f>
-        <v>2.5837578406532011</v>
-      </c>
-      <c r="W28" s="12">
-        <f ca="1">SUM($U28,$V28)</f>
-        <v>12.215934608806194</v>
-      </c>
-      <c r="X28" s="1">
-        <f t="shared" si="8"/>
+        <v>-12.519080917550875</v>
+      </c>
+      <c r="AB28" s="1">
+        <f ca="1">($D$43-$Y28)*$R28</f>
+        <v>-24.903904975213671</v>
+      </c>
+      <c r="AC28" s="4">
+        <f ca="1">SUM($AA28,$AB28)</f>
+        <v>-37.422985892764544</v>
+      </c>
+      <c r="AD28" s="1">
+        <f>(1-$AD$27)*P28/SUM($P$23:$P$26,$P$28)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Z28" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.7485852869836562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="AF28" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.1798281741283905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1">
-        <v>100</v>
-      </c>
-      <c r="E29" s="7" t="s">
+        <f>RADIANS(0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1">
+        <f>RADIANS(30)</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1">
+        <f>D26*SIN(D30)+D27</f>
+        <v>550</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D31*D32</f>
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <f ca="1">SUMPRODUCT($W$23:$W$28,$P$23:$P$28)+$D$24*$D$34</f>
+        <v>13.518983819534586</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1">
         <v>0.5</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1">
+        <f ca="1">SUM($AA$23:$AA$28)</f>
+        <v>-7.3132611078108312E-12</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1">
+        <f ca="1">$D$24*$D$34*($D$42-$D$25)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="25"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f ca="1">SUM($U$23:$U$28)</f>
-        <v>49.999999999961169</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D41" s="1">
+        <f ca="1">SUM($D$39:$D$40)</f>
+        <v>-7.3132611078108312E-12</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="1">
-        <f ca="1">$D$24*$D$26*($D$34-$D$25)</f>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="25"/>
+      <c r="B42" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5">
+        <f ca="1">$D$42+($D$36-$D$41-D47)/$D$35</f>
+        <v>9.1798281741288221</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1">
+        <f ca="1">SUMPRODUCT($R$23:$R$28,$P$23:$P$28,$Y$23:$Y$28)/SUMPRODUCT($R$23:$R$28,$P$23:$P$28)</f>
+        <v>9.17982817412868</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="20"/>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <f ca="1">D42+D37*(1-D38)/D44</f>
+        <v>9.1798281741288221</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="21"/>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <f ca="1">D44*(D42-D46)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1">
-        <f ca="1">SUM($D$31:$D$32)</f>
-        <v>49.999999999961169</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="14">
-        <f ca="1">$D$34+($D$28-$D$33-D39)/$D$27</f>
-        <v>4.5720881232531934</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="1">
-        <f ca="1">SUMPRODUCT($L$23:$L$28,$J$23:$J$28,$S$23:$S$28)/SUMPRODUCT($L$23:$L$28,$J$23:$J$28)</f>
-        <v>1.8319186203185569</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="32" t="s">
+      <c r="E47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>2.7719999999999998</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="33"/>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <v>12600</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="33"/>
-      <c r="B38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <f ca="1">D34+D29*(1-D30)/D36</f>
-        <v>22.609606160771229</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <f ca="1">D36*(D34-D38)</f>
-        <v>-49.999999999999986</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="1"/>
+      <c r="F47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>